--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Spon1-Lrp8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Spon1-Lrp8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.717901</v>
+        <v>0.392285</v>
       </c>
       <c r="H2">
-        <v>2.153703</v>
+        <v>1.176855</v>
       </c>
       <c r="I2">
-        <v>0.0380297505351077</v>
+        <v>0.0216687106565248</v>
       </c>
       <c r="J2">
-        <v>0.0380297505351077</v>
+        <v>0.0216687106565248</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.228108666666667</v>
+        <v>0.1124773333333333</v>
       </c>
       <c r="N2">
-        <v>6.684326</v>
+        <v>0.337432</v>
       </c>
       <c r="O2">
-        <v>0.5687849952918403</v>
+        <v>0.7871437602495106</v>
       </c>
       <c r="P2">
-        <v>0.5687849952918405</v>
+        <v>0.7871437602495107</v>
       </c>
       <c r="Q2">
-        <v>1.599561439908667</v>
+        <v>0.04412317070666666</v>
       </c>
       <c r="R2">
-        <v>14.396052959178</v>
+        <v>0.3971085363599999</v>
       </c>
       <c r="S2">
-        <v>0.0216307514790611</v>
+        <v>0.01705639038593558</v>
       </c>
       <c r="T2">
-        <v>0.0216307514790611</v>
+        <v>0.01705639038593558</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,51 +596,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.717901</v>
+        <v>0.392285</v>
       </c>
       <c r="H3">
-        <v>2.153703</v>
+        <v>1.176855</v>
       </c>
       <c r="I3">
-        <v>0.0380297505351077</v>
+        <v>0.0216687106565248</v>
       </c>
       <c r="J3">
-        <v>0.0380297505351077</v>
+        <v>0.0216687106565248</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.1124773333333334</v>
+        <v>0.03041566666666666</v>
       </c>
       <c r="N3">
-        <v>0.3374320000000001</v>
+        <v>0.09124699999999999</v>
       </c>
       <c r="O3">
-        <v>0.02871288122861098</v>
+        <v>0.2128562397504893</v>
       </c>
       <c r="P3">
-        <v>0.02871288122861098</v>
+        <v>0.2128562397504893</v>
       </c>
       <c r="Q3">
-        <v>0.08074759007733336</v>
+        <v>0.01193160979833333</v>
       </c>
       <c r="R3">
-        <v>0.7267283106960002</v>
+        <v>0.107384488185</v>
       </c>
       <c r="S3">
-        <v>0.001091943710268252</v>
+        <v>0.004612320270589226</v>
       </c>
       <c r="T3">
-        <v>0.001091943710268252</v>
+        <v>0.004612320270589226</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.717901</v>
+        <v>13.91986866666667</v>
       </c>
       <c r="H4">
-        <v>2.153703</v>
+        <v>41.75960600000001</v>
       </c>
       <c r="I4">
-        <v>0.0380297505351077</v>
+        <v>0.7688940604785444</v>
       </c>
       <c r="J4">
-        <v>0.0380297505351077</v>
+        <v>0.7688940604785441</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.576726666666667</v>
+        <v>0.1124773333333333</v>
       </c>
       <c r="N4">
-        <v>4.73018</v>
+        <v>0.337432</v>
       </c>
       <c r="O4">
-        <v>0.4025021234795486</v>
+        <v>0.7871437602495106</v>
       </c>
       <c r="P4">
-        <v>0.4025021234795487</v>
+        <v>0.7871437602495107</v>
       </c>
       <c r="Q4">
-        <v>1.131933650726667</v>
+        <v>1.565669707976889</v>
       </c>
       <c r="R4">
-        <v>10.18740285654</v>
+        <v>14.091027371792</v>
       </c>
       <c r="S4">
-        <v>0.01530705534577835</v>
+        <v>0.605230161998596</v>
       </c>
       <c r="T4">
-        <v>0.01530705534577835</v>
+        <v>0.6052301619985959</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>41.75960600000001</v>
       </c>
       <c r="I5">
-        <v>0.7373845876726675</v>
+        <v>0.7688940604785444</v>
       </c>
       <c r="J5">
-        <v>0.7373845876726675</v>
+        <v>0.7688940604785441</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.228108666666667</v>
+        <v>0.03041566666666666</v>
       </c>
       <c r="N5">
-        <v>6.684326</v>
+        <v>0.09124699999999999</v>
       </c>
       <c r="O5">
-        <v>0.5687849952918403</v>
+        <v>0.2128562397504893</v>
       </c>
       <c r="P5">
-        <v>0.5687849952918405</v>
+        <v>0.2128562397504893</v>
       </c>
       <c r="Q5">
-        <v>31.01498001506178</v>
+        <v>0.4233820854091111</v>
       </c>
       <c r="R5">
-        <v>279.134820135556</v>
+        <v>3.810438768682</v>
       </c>
       <c r="S5">
-        <v>0.4194132892276738</v>
+        <v>0.1636638984799482</v>
       </c>
       <c r="T5">
-        <v>0.4194132892276739</v>
+        <v>0.1636638984799482</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.91986866666667</v>
+        <v>3.7916</v>
       </c>
       <c r="H6">
-        <v>41.75960600000001</v>
+        <v>11.3748</v>
       </c>
       <c r="I6">
-        <v>0.7373845876726675</v>
+        <v>0.209437228864931</v>
       </c>
       <c r="J6">
-        <v>0.7373845876726675</v>
+        <v>0.209437228864931</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,33 +800,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1124773333333334</v>
+        <v>0.1124773333333333</v>
       </c>
       <c r="N6">
-        <v>0.3374320000000001</v>
+        <v>0.337432</v>
       </c>
       <c r="O6">
-        <v>0.02871288122861098</v>
+        <v>0.7871437602495106</v>
       </c>
       <c r="P6">
-        <v>0.02871288122861098</v>
+        <v>0.7871437602495107</v>
       </c>
       <c r="Q6">
-        <v>1.565669707976889</v>
+        <v>0.4264690570666667</v>
       </c>
       <c r="R6">
-        <v>14.091027371792</v>
+        <v>3.8382215136</v>
       </c>
       <c r="S6">
-        <v>0.02117243608565358</v>
+        <v>0.1648572078649791</v>
       </c>
       <c r="T6">
-        <v>0.02117243608565358</v>
+        <v>0.1648572078649791</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,232 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.91986866666667</v>
+        <v>3.7916</v>
       </c>
       <c r="H7">
-        <v>41.75960600000001</v>
+        <v>11.3748</v>
       </c>
       <c r="I7">
-        <v>0.7373845876726675</v>
+        <v>0.209437228864931</v>
       </c>
       <c r="J7">
-        <v>0.7373845876726675</v>
+        <v>0.209437228864931</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.576726666666667</v>
+        <v>0.03041566666666666</v>
       </c>
       <c r="N7">
-        <v>4.73018</v>
+        <v>0.09124699999999999</v>
       </c>
       <c r="O7">
-        <v>0.4025021234795486</v>
+        <v>0.2128562397504893</v>
       </c>
       <c r="P7">
-        <v>0.4025021234795487</v>
+        <v>0.2128562397504893</v>
       </c>
       <c r="Q7">
-        <v>21.94782812323111</v>
+        <v>0.1153240417333333</v>
       </c>
       <c r="R7">
-        <v>197.53045310908</v>
+        <v>1.0379163756</v>
       </c>
       <c r="S7">
-        <v>0.2967988623593401</v>
+        <v>0.04458002099995185</v>
       </c>
       <c r="T7">
-        <v>0.2967988623593401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>4.239582666666666</v>
-      </c>
-      <c r="H8">
-        <v>12.718748</v>
-      </c>
-      <c r="I8">
-        <v>0.2245856617922248</v>
-      </c>
-      <c r="J8">
-        <v>0.2245856617922248</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>2.228108666666667</v>
-      </c>
-      <c r="N8">
-        <v>6.684326</v>
-      </c>
-      <c r="O8">
-        <v>0.5687849952918403</v>
-      </c>
-      <c r="P8">
-        <v>0.5687849952918405</v>
-      </c>
-      <c r="Q8">
-        <v>9.446250882649778</v>
-      </c>
-      <c r="R8">
-        <v>85.016257943848</v>
-      </c>
-      <c r="S8">
-        <v>0.1277409545851054</v>
-      </c>
-      <c r="T8">
-        <v>0.1277409545851055</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>4.239582666666666</v>
-      </c>
-      <c r="H9">
-        <v>12.718748</v>
-      </c>
-      <c r="I9">
-        <v>0.2245856617922248</v>
-      </c>
-      <c r="J9">
-        <v>0.2245856617922248</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.1124773333333334</v>
-      </c>
-      <c r="N9">
-        <v>0.3374320000000001</v>
-      </c>
-      <c r="O9">
-        <v>0.02871288122861098</v>
-      </c>
-      <c r="P9">
-        <v>0.02871288122861098</v>
-      </c>
-      <c r="Q9">
-        <v>0.476856952792889</v>
-      </c>
-      <c r="R9">
-        <v>4.291712575136001</v>
-      </c>
-      <c r="S9">
-        <v>0.006448501432689145</v>
-      </c>
-      <c r="T9">
-        <v>0.006448501432689147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>4.239582666666666</v>
-      </c>
-      <c r="H10">
-        <v>12.718748</v>
-      </c>
-      <c r="I10">
-        <v>0.2245856617922248</v>
-      </c>
-      <c r="J10">
-        <v>0.2245856617922248</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.576726666666667</v>
-      </c>
-      <c r="N10">
-        <v>4.73018</v>
-      </c>
-      <c r="O10">
-        <v>0.4025021234795486</v>
-      </c>
-      <c r="P10">
-        <v>0.4025021234795487</v>
-      </c>
-      <c r="Q10">
-        <v>6.68466304607111</v>
-      </c>
-      <c r="R10">
-        <v>60.16196741464</v>
-      </c>
-      <c r="S10">
-        <v>0.09039620577443021</v>
-      </c>
-      <c r="T10">
-        <v>0.09039620577443024</v>
+        <v>0.04458002099995185</v>
       </c>
     </row>
   </sheetData>
